--- a/1des/HARE/Orçamento/Tabela de Preços.xlsx
+++ b/1des/HARE/Orçamento/Tabela de Preços.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos Henrique Siqueira\Senai\1des\HARE\Orçamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlo\Desktop\Coisas do Senai\Senai\1des\HARE\Orçamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B09EDA2-2414-42CF-9140-2DF43F48D048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C977A-7029-410F-AD25-650D59B515A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DFD38E0-CFFD-4CE6-BA13-B85895B05A2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3DFD38E0-CFFD-4CE6-BA13-B85895B05A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Licenças</t>
   </si>
@@ -42,40 +53,61 @@
     <t>Equipamentos</t>
   </si>
   <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Teclado</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Gabinete</t>
-  </si>
-  <si>
-    <t>Placa mãe</t>
-  </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>Placa de vídeo</t>
-  </si>
-  <si>
-    <t>Processador</t>
-  </si>
-  <si>
-    <t>Memoria ram</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>https://www.kabum.com.br/produto/128719/mouse-multi-classic-box-optico-full-black-mo300?srsltid=AfmBOoqwNL7sINXdTuGkKBfUr5Bf8wyZQeY-iEvC7UH0ZxA1_046HpdbmXk</t>
-  </si>
-  <si>
-    <t>https://www.terabyteshop.com.br/produto/23673/teclado-dr-office-kdr-0201-b-usb-membrana-preto?srsltid=AfmBOoqrbJ--fCVUEY6FoLiuYUOpPa9kdkcB5vUx5VImYay3yUwrerTm_d0</t>
+    <t>AutoCadLt</t>
+  </si>
+  <si>
+    <t>Product Design &amp; Manufacturing Collection</t>
+  </si>
+  <si>
+    <t>Orçamento Restante</t>
+  </si>
+  <si>
+    <t>Por pc</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/computador-pichau-workstation-ws209-intel-core-i3-10100f-quadro-t400-4gb-16gb-ddr4-hd-2tb-ssd-240gb-34020</t>
+  </si>
+  <si>
+    <t>pc recomendado</t>
+  </si>
+  <si>
+    <t>mouse teclado</t>
+  </si>
+  <si>
+    <t>https://www.mercadolivre.com.br/kit-de-teclado-e-mouse-microsoft-wired-desktop-600-portugus-brasil-de-cor-preto/p/MLB18611638?pdp_filters=category:MLB5914#searchVariation=MLB18611638&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=6462ba48-a5b2-4671-95e8-0404836c31a0</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>https://www.lenovo.com/br/pt/accessories-and-monitors/monitors/office/S24e-03A18238FS023-8inch-Monitor-HDMI/p/61F9KBR1BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://br-store.acer.com/notebook-acer-pt314-52s-761z-ci712700h-16gb-1tb-ssd-6g-gddr6-wnhasl64-gray-lcd-14-nh-qhmal-002/p</t>
+  </si>
+  <si>
+    <t>PIX</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>https://www.kalunga.com.br/prod/impressora-multifuncional-hp-smart-tank-581-colorida-wi-fi-conexao-usb-bivolt-papel-sulfite-a4-hp-office-500-folhas-cx-1-un/999375?cq_src=google_ads&amp;cq_cmp=17655683916&amp;cq_con=&amp;cq_term=&amp;cq_med=pla&amp;cq_plac=&amp;cq_net=x&amp;cq_pos=&amp;cq_plt=gp&amp;pcID=3916&amp;gclid=CjwKCAjwgsqoBhBNEiwAwe5w09p9QVWPPZMU1_6UY212cRUdHLt4Ve9qZve4sK01k1xlpYTHJqhZjBoCIAMQAvD_BwE</t>
+  </si>
+  <si>
+    <t>impressora</t>
+  </si>
+  <si>
+    <t>Sobrou após PCs e Notebooks</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Mensal</t>
   </si>
 </sst>
 </file>
@@ -84,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.000000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,9 +142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="singleAccounting"/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,18 +167,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -460,119 +498,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE3B528-899E-4142-99C7-581CACA54731}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3499.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1870</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7423</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7423</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8824.27</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>384</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>549</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="M6" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B7" s="2">
+        <v>11519</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="M8" s="5">
+        <f>SUM(M2:M6)</f>
+        <v>5962.1399999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f>SUM(B6:B8)*5</f>
+        <v>59515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <f>100000-B9</f>
+        <v>40485</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="2">
+        <v>899.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B10/5</f>
+        <v>8097</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <f>B10-(M8 * 3)</f>
+        <v>22598.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f>B13/2</f>
+        <v>11299.29</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>384</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D14" s="2">
+        <v>8711.1200000000008</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5">
+        <f>(B14-D14)*2</f>
+        <v>5176.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D15-M10-M11</f>
+        <v>4277.24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D16/12</f>
+        <v>356.43666666666667</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.autodesk.com.br/collections/product-design-manufacturing/overview" xr:uid="{2BB3D5E8-3486-46AB-90B9-B80ECB06623F}"/>
+    <hyperlink ref="L6" r:id="rId2" xr:uid="{423608F0-E52E-4044-8930-DA8ED0691CA7}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/1des/HARE/Orçamento/Tabela de Preços.xlsx
+++ b/1des/HARE/Orçamento/Tabela de Preços.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlo\Desktop\Coisas do Senai\Senai\1des\HARE\Orçamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C977A-7029-410F-AD25-650D59B515A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3714557-A183-45F1-BC13-E5FC2F041253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3DFD38E0-CFFD-4CE6-BA13-B85895B05A2C}"/>
+    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{3DFD38E0-CFFD-4CE6-BA13-B85895B05A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,78 +36,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Licenças</t>
   </si>
   <si>
-    <t>AutoCad</t>
-  </si>
-  <si>
-    <t>Inventor</t>
-  </si>
-  <si>
     <t>Pacote Office</t>
   </si>
   <si>
     <t>Equipamentos</t>
   </si>
   <si>
-    <t>AutoCadLt</t>
-  </si>
-  <si>
     <t>Product Design &amp; Manufacturing Collection</t>
   </si>
   <si>
-    <t>Orçamento Restante</t>
-  </si>
-  <si>
-    <t>Por pc</t>
-  </si>
-  <si>
-    <t>https://www.pichau.com.br/computador-pichau-workstation-ws209-intel-core-i3-10100f-quadro-t400-4gb-16gb-ddr4-hd-2tb-ssd-240gb-34020</t>
-  </si>
-  <si>
-    <t>pc recomendado</t>
-  </si>
-  <si>
-    <t>mouse teclado</t>
-  </si>
-  <si>
-    <t>https://www.mercadolivre.com.br/kit-de-teclado-e-mouse-microsoft-wired-desktop-600-portugus-brasil-de-cor-preto/p/MLB18611638?pdp_filters=category:MLB5914#searchVariation=MLB18611638&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=6462ba48-a5b2-4671-95e8-0404836c31a0</t>
-  </si>
-  <si>
     <t>Notebooks</t>
   </si>
   <si>
-    <t>monitor</t>
-  </si>
-  <si>
-    <t>https://www.lenovo.com/br/pt/accessories-and-monitors/monitors/office/S24e-03A18238FS023-8inch-Monitor-HDMI/p/61F9KBR1BR</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://br-store.acer.com/notebook-acer-pt314-52s-761z-ci712700h-16gb-1tb-ssd-6g-gddr6-wnhasl64-gray-lcd-14-nh-qhmal-002/p</t>
   </si>
   <si>
-    <t>PIX</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>https://www.kalunga.com.br/prod/impressora-multifuncional-hp-smart-tank-581-colorida-wi-fi-conexao-usb-bivolt-papel-sulfite-a4-hp-office-500-folhas-cx-1-un/999375?cq_src=google_ads&amp;cq_cmp=17655683916&amp;cq_con=&amp;cq_term=&amp;cq_med=pla&amp;cq_plac=&amp;cq_net=x&amp;cq_pos=&amp;cq_plt=gp&amp;pcID=3916&amp;gclid=CjwKCAjwgsqoBhBNEiwAwe5w09p9QVWPPZMU1_6UY212cRUdHLt4Ve9qZve4sK01k1xlpYTHJqhZjBoCIAMQAvD_BwE</t>
-  </si>
-  <si>
-    <t>impressora</t>
-  </si>
-  <si>
-    <t>Sobrou após PCs e Notebooks</t>
-  </si>
-  <si>
-    <t>Anual</t>
-  </si>
-  <si>
-    <t>Mensal</t>
+    <t>Orçamento</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
+  </si>
+  <si>
+    <t>Computadores</t>
+  </si>
+  <si>
+    <t>Orçamento Total</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Local da compra</t>
+  </si>
+  <si>
+    <t>Orçamento Restante Após licenças</t>
+  </si>
+  <si>
+    <t>Processador</t>
+  </si>
+  <si>
+    <t>AMD Ryzen™ 7 5700X</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/320797/processador-amd-ryzen-7-5700x-3-4ghz-4-6ghz-max-turbo-cache-36mb-am4-sem-video-100-100000926wof?gclid=CjwKCAjw69moBhBgEiwAUFCx2HzwLn2ZTQRkYwgooZ1Ej9ntBlW7qrLOtv_3vOTxufc50CjKODISQRoCkz0QAvD_BwE</t>
+  </si>
+  <si>
+    <t>Orçamento Restante Após PCs</t>
+  </si>
+  <si>
+    <t>Placa Mãe</t>
+  </si>
+  <si>
+    <t>Gigabyte B550M Aorus Elite</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/placa-mae-gigabyte-b550m-aorus-elite-ddr4-socket-am4-chipset-amd-b550?gclid=CjwKCAjw69moBhBgEiwAUFCx2D1EXhFEe7byEYD3LdLMmEtplFcWBfvOAkmVyU8rtBzOcKFIieQYPxoCg1AQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Orçamento Restante Após Noteeboks</t>
+  </si>
+  <si>
+    <t>Placa de Vídeo</t>
+  </si>
+  <si>
+    <t>Quatro T600</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/placa-de-video-pny-quadro-t600-4gb-gddr6-128-bit-vcnt600-pb-nac</t>
+  </si>
+  <si>
+    <t>Orçamento Restante Após Equipamentos</t>
+  </si>
+  <si>
+    <t>Memória ram</t>
+  </si>
+  <si>
+    <t>Team Group T-Force Vulcan Pichau(1x8gb)</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/memoria-team-group-t-force-vulcan-pichau-8gb-1x8gb-ddr4-3000mhz-vermelha-tlprd48g3000hc16f01?gclid=CjwKCAjw69moBhBgEiwAUFCx2JWWLTRCHLwNhBGuTyOoVExwszzeQxtQyllnffwocLAtNRNA1OuW7xoCnecQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Water cooler aqua 240x</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/water-cooler-pichau-gaming-aqua-240x-p1-240mm-pg-aq240x-blk01?gclid=CjwKCAjw69moBhBgEiwAUFCx2KyyCockQ2-NEmGDoGIo8YAlLJW5MCQkZ9x3BVQubAMRGyXpgXsA8RoCGvUQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>WD Blue 2TB 3.5" Sata III</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/115063/hd-wd-blue-2tb-3-5-sata-wd20ezaz?gclid=CjwKCAjw69moBhBgEiwAUFCx2BcTSwBRDV3h7wxi-9GZN98pIAkvOM4vdCKCgI0YlETiSJ9tOcRRkxoCoVYQAvD_BwE</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Pichau Kepler Z1</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/ssd-pichau-kepler-z1-1tb-m-2-pcie-nvme-leitura-3500-mb-s-gravacao-3000-mb-s-pch-kplz1-1tb</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>Mancer Thunder 600W 80 plus Bronze</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/fonte-mancer-thunder-600w-80-plus-bronze-mcr-thr600-bl01</t>
+  </si>
+  <si>
+    <t>Total 5 licenças</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Pichau HX350, mid-tower</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/gabinete-gamer-pichau-hx350-mid-tower-lateral-de-vidro-com-4-fans-preto-pg-hx35-bl01</t>
+  </si>
+  <si>
+    <t>Mouse Teclado</t>
+  </si>
+  <si>
+    <t>Kit de teclado e mouse Microsoft</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/6880/teclado-e-mouse-microsoft-wired-desktop-600-multimidia-abnt2-apb00005?gclid=CjwKCAjw69moBhBgEiwAUFCx2I1MBFM5DF7I2MKE-YnLxLlWG0qfmSCYhH3NtQjfyjcbriyrAlPMTRoCsgoQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Local da Compra</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>LG UltraGear, 24"</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/monitor-gamer-lg-ultragear-24-pol-ips-fhd-1ms-144hz-freesync-premium-dp-hdmi-24gn60r-b</t>
+  </si>
+  <si>
+    <t>Tela de Projeção</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Proje%C3%A7%C3%A3o-El%C3%A9trica-Polegadas-Controle-Remoto/dp/B08SKNLBP4/ref=asc_df_B08SKNLBP4/?tag=googleshopp00-20&amp;linkCode=df0&amp;hvadid=379728501964&amp;hvpos=&amp;hvnetw=g&amp;hvrand=1515726175871274090&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9074168&amp;hvtargid=pla-1234290763411&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Licença Windows</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/pt-br/d/windows-11-pro/dg7gmgf0d8h4?rtc=1</t>
+  </si>
+  <si>
+    <t>Datashow</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/185230/projetor-epson-powerlite-e20-3lcd-xga-3-400-lumens-conexao-hdmi-bivolt-v11h981020?gclid=Cj0KCQjwpc-oBhCGARIsAH6ote-rrpzXPaAmtoIRUdr-nzyC3yHqnZVosg8crzW1-ZvGCLlmtNUsh_0aAvs2EALw_wcB</t>
+  </si>
+  <si>
+    <t>Total 1 computador</t>
+  </si>
+  <si>
+    <t>Impressora</t>
+  </si>
+  <si>
+    <t>https://www.kalunga.com.br/prod/impressora-multifuncional-tanque-de-tinta-ecotank-wifi-a3-l14150-colorida-wi-fi-conexao-ethernet-conexao-usb-bivolt-epson-cx-1-un/220587</t>
+  </si>
+  <si>
+    <t>Total 3 computadores</t>
+  </si>
+  <si>
+    <t>Total 1 de cada</t>
+  </si>
+  <si>
+    <t>Notebook Predator Triton 300 </t>
+  </si>
+  <si>
+    <t>Total 2 notebooks</t>
   </si>
 </sst>
 </file>
@@ -118,7 +250,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,26 +268,78 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,25 +354,180 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -199,6 +538,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E04A119-2A4B-451F-89BC-630CD7923830}" name="Tabela2" displayName="Tabela2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:B6" xr:uid="{1E04A119-2A4B-451F-89BC-630CD7923830}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{19E4E318-03E4-45CE-8E09-5ACD6855AC08}" name="Orçamento" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E753FBD6-B425-4A79-9A2A-895EEB7C8047}" name="Dinheiro" dataDxfId="7" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18C05242-2C25-493C-8D1F-6247B8A55429}" name="Tabela3" displayName="Tabela3" ref="A8:B11" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A8:B11" xr:uid="{18C05242-2C25-493C-8D1F-6247B8A55429}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5D76EE11-2EDD-49EC-AE5C-03472CF66C4E}" name="Licenças" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{88F09C74-3D28-466D-8B91-48AB3E1E8CB9}" name="Custo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{22FB51FD-A4C6-4BB8-9261-625CB35B1FFC}" name="Tabela5" displayName="Tabela5" ref="A13:C17" totalsRowShown="0">
+  <autoFilter ref="A13:C17" xr:uid="{22FB51FD-A4C6-4BB8-9261-625CB35B1FFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C17">
+    <sortCondition ref="B13:B17"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5F573E6D-FAB2-4FB3-9D22-BC5443E116F8}" name="Equipamentos" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4D7CC99C-2BA6-4724-9520-810FDF031584}" name="Custo" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{BCD2B3A7-3ED2-4AB9-9AE3-8AC7250E4B53}" name="Local da Compra" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B8AD0A68-0AD8-405D-A636-EFDB12E530AD}" name="Tabela6" displayName="Tabela6" ref="A19:C21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A19:C21" xr:uid="{B8AD0A68-0AD8-405D-A636-EFDB12E530AD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3BAEEE9B-F517-44BC-B95F-68842D43EADA}" name="Notebooks" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{ACA80341-45F1-4E08-BF26-A14074E474D3}" name="Custo">
+      <calculatedColumnFormula>B19*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{04362021-7363-4D65-918D-700ADB12D876}" name="Local da Compra"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,214 +888,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE3B528-899E-4142-99C7-581CACA54731}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>150000</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
+        <f>B2-B11</f>
+        <v>90485</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <f>B3-B38</f>
+        <v>63274.400000000001</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <f>B4-B21</f>
+        <v>45852.160000000003</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B5-B17</f>
+        <v>37161.060000000005</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J2">
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B10" s="14">
+        <v>11519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15">
+        <f>SUM(B9:B10)*5</f>
+        <v>59515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="19">
+        <v>925.9</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3599.1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="19">
+        <v>4166.1000000000004</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="22">
+        <f>SUM(B14:B16)</f>
+        <v>8691.1</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="25">
+        <v>8711.1200000000008</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="27">
+        <f>B20*2</f>
+        <v>17422.240000000002</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3499.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1870</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1248.99</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
+        <v>839.99</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1599.99</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="10">
+        <f>129.99*4</f>
+        <v>519.96</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="10">
+        <v>375.99</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10">
+        <v>368.99</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="10">
+        <v>756.42</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="10">
+        <v>359.99</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10">
+        <v>179.9</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="10">
+        <v>119.99</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1099.99</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10">
         <v>1600</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7423</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8824.27</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>384</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11519</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="M8" s="5">
-        <f>SUM(M2:M6)</f>
-        <v>5962.1399999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <f>SUM(B6:B8)*5</f>
-        <v>59515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <f>100000-B9</f>
-        <v>40485</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="2">
-        <v>899.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B10/5</f>
-        <v>8097</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <f>B10-(M8 * 3)</f>
-        <v>22598.58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <f>B13/2</f>
-        <v>11299.29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8711.1200000000008</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5">
-        <f>(B14-D14)*2</f>
-        <v>5176.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5">
-        <f>D15-M10-M11</f>
-        <v>4277.24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5">
-        <f>D16/12</f>
-        <v>356.43666666666667</v>
-      </c>
+      <c r="D36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="10">
+        <f>SUM(C25:C36)</f>
+        <v>9070.1999999999989</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="21">
+        <f>B37*3</f>
+        <v>27210.6</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.autodesk.com.br/collections/product-design-manufacturing/overview" xr:uid="{2BB3D5E8-3486-46AB-90B9-B80ECB06623F}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{423608F0-E52E-4044-8930-DA8ED0691CA7}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>